--- a/pipeline/cell_type_mapping.xlsx
+++ b/pipeline/cell_type_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D7889B-1BA6-4E86-A375-E51B87ED65E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FFCD9F-BA25-4D63-BB4F-464A893914EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="294">
   <si>
     <t>cell_type</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>mDC</t>
-  </si>
-  <si>
-    <t>myeloid dendritic cell</t>
   </si>
   <si>
     <t>vanderbilt_lung</t>
@@ -3197,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -6311,7 +6308,7 @@
         <v>224</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>17</v>
@@ -6325,7 +6322,7 @@
         <v>224</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>17</v>
@@ -6395,7 +6392,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>17</v>
@@ -6505,7 +6502,7 @@
         <v>244</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>252</v>
@@ -6565,7 +6562,7 @@
         <v>244</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>252</v>
@@ -6579,7 +6576,7 @@
         <v>244</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>252</v>
@@ -6773,7 +6770,7 @@
         <v>244</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>262</v>
@@ -6806,7 +6803,7 @@
         <v>244</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>17</v>
@@ -6817,7 +6814,7 @@
         <v>244</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>17</v>
@@ -6916,7 +6913,7 @@
         <v>244</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>17</v>
@@ -7018,7 +7015,7 @@
         <v>281</v>
       </c>
       <c r="C274" t="s">
-        <v>282</v>
+        <v>36</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -7078,10 +7075,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="C280" t="s">
         <v>54</v>
@@ -7089,10 +7086,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C281" t="s">
         <v>53</v>
@@ -7100,10 +7097,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C282" t="s">
         <v>54</v>
@@ -7111,10 +7108,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C283" t="s">
         <v>53</v>
@@ -7122,10 +7119,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="C284" t="s">
         <v>61</v>

--- a/pipeline/cell_type_mapping.xlsx
+++ b/pipeline/cell_type_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FFCD9F-BA25-4D63-BB4F-464A893914EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD3CE0-E7CA-4772-99E7-011AC6B04C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3194,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -6045,7 +6045,7 @@
         <v>245</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -6059,7 +6059,7 @@
         <v>248</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -6073,7 +6073,7 @@
         <v>249</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -6241,7 +6241,7 @@
         <v>260</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -6255,7 +6255,7 @@
         <v>261</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -6519,7 +6519,7 @@
         <v>245</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -6535,7 +6535,7 @@
         <v>248</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -6551,7 +6551,7 @@
         <v>249</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -6565,7 +6565,7 @@
         <v>290</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -6579,7 +6579,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -6751,7 +6751,7 @@
         <v>260</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6762,7 +6762,7 @@
         <v>261</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
     </row>
     <row r="252" spans="1:6">

--- a/pipeline/cell_type_mapping.xlsx
+++ b/pipeline/cell_type_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD3CE0-E7CA-4772-99E7-011AC6B04C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89A51B-707A-401D-A8F0-A985397783DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="mapping" sheetId="2" r:id="rId2"/>
     <sheet name="README" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -884,18 +884,12 @@
     <t>mDC</t>
   </si>
   <si>
-    <t>vanderbilt_lung</t>
-  </si>
-  <si>
     <t>CD8</t>
   </si>
   <si>
     <t>CD4</t>
   </si>
   <si>
-    <t>vanderbilt_cancer</t>
-  </si>
-  <si>
     <t>FOXP3</t>
   </si>
   <si>
@@ -918,6 +912,12 @@
   </si>
   <si>
     <t>Epithelial cell dividing</t>
+  </si>
+  <si>
+    <t>vanderbiltLungcancer</t>
+  </si>
+  <si>
+    <t>vanderbiltMelanoma</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1159,7 +1159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1457,11 +1457,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
@@ -3194,11 +3194,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C252" sqref="C252"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
@@ -6308,7 +6308,7 @@
         <v>224</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>17</v>
@@ -6322,7 +6322,7 @@
         <v>224</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>17</v>
@@ -6392,7 +6392,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>17</v>
@@ -6502,7 +6502,7 @@
         <v>244</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>252</v>
@@ -6562,7 +6562,7 @@
         <v>244</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>17</v>
@@ -6576,7 +6576,7 @@
         <v>244</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>17</v>
@@ -6770,7 +6770,7 @@
         <v>244</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>262</v>
@@ -6803,7 +6803,7 @@
         <v>244</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>17</v>
@@ -6814,7 +6814,7 @@
         <v>244</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>17</v>
@@ -6913,7 +6913,7 @@
         <v>244</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>17</v>
@@ -7075,10 +7075,10 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="C280" t="s">
         <v>54</v>
@@ -7086,10 +7086,10 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="5" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" t="s">
         <v>53</v>
@@ -7097,10 +7097,10 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
         <v>54</v>
@@ -7108,10 +7108,10 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
         <v>53</v>
@@ -7119,10 +7119,10 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C284" t="s">
         <v>61</v>
@@ -7158,7 +7158,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
